--- a/htdocs/App/Controllers/Traspasos/1423BNG.xlsx
+++ b/htdocs/App/Controllers/Traspasos/1423BNG.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>TRANSFERENCIAS PARTICULARES</t>
   </si>
@@ -31,13 +31,13 @@
     <t>Fecha Entrada</t>
   </si>
   <si>
-    <t>28-12-2017</t>
+    <t>01-02-2018</t>
   </si>
   <si>
     <t>Atendido por:</t>
   </si>
   <si>
-    <t>Jaume</t>
+    <t>Silvia</t>
   </si>
   <si>
     <t>Provisión</t>
@@ -49,7 +49,7 @@
     <t>Cobrado el</t>
   </si>
   <si>
-    <t>2017-12-28</t>
+    <t>2018-02-01</t>
   </si>
   <si>
     <t>x</t>
@@ -64,7 +64,7 @@
     <t>Vendedor:</t>
   </si>
   <si>
-    <t>DIANA DIAZ</t>
+    <t xml:space="preserve">Proyectos Osa </t>
   </si>
   <si>
     <t>Impresos/Fotocopias…………………….</t>
@@ -82,7 +82,7 @@
     <t>Mail</t>
   </si>
   <si>
-    <t>No disponible</t>
+    <t>info@proyectososa.com</t>
   </si>
   <si>
     <t>Form. Expte …………………………….</t>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Comprador:</t>
-  </si>
-  <si>
-    <t>OSCAR SALINAS</t>
   </si>
   <si>
     <t>Pago y Gest. IVTM………………</t>
@@ -1269,7 +1266,7 @@
       <c r="Q13" s="14"/>
       <c r="R13" s="14"/>
       <c r="S13" s="55">
-        <v>1650</v>
+        <v>0</v>
       </c>
       <c r="T13" s="55"/>
       <c r="U13" s="45" t="s">
@@ -1367,7 +1364,7 @@
       </c>
       <c r="C16" s="44"/>
       <c r="D16" s="56">
-        <v>620346534</v>
+        <v>722656862</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1550,7 +1547,7 @@
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
       <c r="F21" s="55" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G21" s="55"/>
       <c r="H21" s="55"/>
@@ -1565,7 +1562,7 @@
       <c r="Q21" s="14"/>
       <c r="R21" s="14"/>
       <c r="S21" s="58" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T21" s="59"/>
       <c r="U21" s="59"/>
@@ -1612,7 +1609,7 @@
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="56">
-        <v>687708466</v>
+        <v>722656862</v>
       </c>
       <c r="E23" s="56"/>
       <c r="F23" s="56"/>
@@ -1858,7 +1855,7 @@
       <c r="Q33" s="14"/>
       <c r="R33" s="14"/>
       <c r="S33" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="T33" s="57"/>
       <c r="U33" s="57"/>
